--- a/data/BreweryBackgroundDataset.xlsx
+++ b/data/BreweryBackgroundDataset.xlsx
@@ -5,15 +5,16 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\redhe\IdeaProjects\Craft Brew Rate and Review\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\redhe\IdeaProjects\CraftBrewRateReview\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{012162F3-3F5D-481C-87C5-36A58E0D65AF}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8CB49E93-8AF9-4712-BDA3-818D735675F2}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{F96B66E8-DBB7-4B9A-A7F4-865DCAE86F6C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -1389,7 +1390,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B69" sqref="B69"/>
+      <selection pane="bottomLeft" activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.2"/>
@@ -3272,4 +3273,29 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FF313848-18C7-402B-901F-1F1FA3F7F0BF}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView topLeftCell="A202" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H214" sqref="A1:H214"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="14.5703125" defaultRowHeight="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="14.5703125" style="8"/>
+    <col min="2" max="2" width="52.7109375" style="8" customWidth="1"/>
+    <col min="3" max="3" width="34.7109375" style="8" customWidth="1"/>
+    <col min="4" max="4" width="34.140625" style="8" customWidth="1"/>
+    <col min="5" max="5" width="14.5703125" style="8"/>
+    <col min="6" max="6" width="5.85546875" style="8" customWidth="1"/>
+    <col min="7" max="7" width="8" style="8" customWidth="1"/>
+    <col min="8" max="16384" width="14.5703125" style="8"/>
+  </cols>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+</worksheet>
 </file>
--- a/data/BreweryBackgroundDataset.xlsx
+++ b/data/BreweryBackgroundDataset.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\redhe\IdeaProjects\CraftBrewRateReview\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8CB49E93-8AF9-4712-BDA3-818D735675F2}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F855EEDF-7D72-42EA-83A0-CF23452FCE3B}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{F96B66E8-DBB7-4B9A-A7F4-865DCAE86F6C}"/>
   </bookViews>
@@ -445,32 +445,6 @@
     <t>SU and MO</t>
   </si>
   <si>
-    <t>BREWERY[0](STRING)</t>
-  </si>
-  <si>
-    <t>WEBSITE[1] (STRING)</t>
-  </si>
-  <si>
-    <t>STREET ADDRESS[2](STRING)</t>
-  </si>
-  <si>
-    <t>CITY[3] (STRING)</t>
-  </si>
-  <si>
-    <t>STATE
-[4]</t>
-  </si>
-  <si>
-    <t>ZIPCODE[5] (STRING)</t>
-  </si>
-  <si>
-    <t>PHONE[6]
-(String)</t>
-  </si>
-  <si>
-    <t>DAYS CLOSED[7](String)</t>
-  </si>
-  <si>
     <t>maidencitybrewing.com</t>
   </si>
   <si>
@@ -991,6 +965,30 @@
   </si>
   <si>
     <t>facebook.com/WoodenCask</t>
+  </si>
+  <si>
+    <t>BREWERY</t>
+  </si>
+  <si>
+    <t>WEBSITE</t>
+  </si>
+  <si>
+    <t>STREET ADDRESS</t>
+  </si>
+  <si>
+    <t>CITY</t>
+  </si>
+  <si>
+    <t>STATE</t>
+  </si>
+  <si>
+    <t>ZIPCODE</t>
+  </si>
+  <si>
+    <t>PHONE</t>
+  </si>
+  <si>
+    <t>DAYS CLOSED</t>
   </si>
 </sst>
 </file>
@@ -1390,7 +1388,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F2" sqref="F2"/>
+      <selection pane="bottomLeft" activeCell="I1" sqref="I1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.2"/>
@@ -1409,31 +1407,31 @@
   <sheetData>
     <row r="1" spans="1:9" s="2" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>137</v>
+        <v>311</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>185</v>
+        <v>177</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>138</v>
+        <v>312</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>139</v>
+        <v>313</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>140</v>
+        <v>314</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>141</v>
+        <v>315</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>142</v>
+        <v>316</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>143</v>
+        <v>317</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>144</v>
+        <v>318</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
@@ -1441,13 +1439,13 @@
         <v>0</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>186</v>
+        <v>178</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>197</v>
+        <v>189</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>183</v>
+        <v>175</v>
       </c>
       <c r="E2" s="4" t="s">
         <v>2</v>
@@ -1459,7 +1457,7 @@
         <v>40299</v>
       </c>
       <c r="H2" s="5" t="s">
-        <v>184</v>
+        <v>176</v>
       </c>
       <c r="I2" s="4" t="s">
         <v>4</v>
@@ -1470,10 +1468,10 @@
         <v>1</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>186</v>
+        <v>178</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>197</v>
+        <v>189</v>
       </c>
       <c r="D3" s="4" t="s">
         <v>67</v>
@@ -1488,7 +1486,7 @@
         <v>40014</v>
       </c>
       <c r="H3" s="4" t="s">
-        <v>187</v>
+        <v>179</v>
       </c>
       <c r="I3" s="4" t="s">
         <v>134</v>
@@ -1499,13 +1497,13 @@
         <v>6</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>186</v>
+        <v>178</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>198</v>
+        <v>190</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>188</v>
+        <v>180</v>
       </c>
       <c r="E4" s="4" t="s">
         <v>7</v>
@@ -1517,10 +1515,10 @@
         <v>40391</v>
       </c>
       <c r="H4" s="4" t="s">
-        <v>189</v>
+        <v>181</v>
       </c>
       <c r="I4" s="4" t="s">
-        <v>193</v>
+        <v>185</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
@@ -1528,13 +1526,13 @@
         <v>5</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>190</v>
+        <v>182</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>199</v>
+        <v>191</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>191</v>
+        <v>183</v>
       </c>
       <c r="E5" s="4" t="s">
         <v>2</v>
@@ -1546,7 +1544,7 @@
         <v>40202</v>
       </c>
       <c r="H5" s="4" t="s">
-        <v>192</v>
+        <v>184</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
@@ -1554,13 +1552,13 @@
         <v>8</v>
       </c>
       <c r="B6" s="6" t="s">
+        <v>178</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>192</v>
+      </c>
+      <c r="D6" s="4" t="s">
         <v>186</v>
-      </c>
-      <c r="C6" s="7" t="s">
-        <v>200</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>194</v>
       </c>
       <c r="E6" s="4" t="s">
         <v>2</v>
@@ -1572,7 +1570,7 @@
         <v>40206</v>
       </c>
       <c r="H6" s="4" t="s">
-        <v>195</v>
+        <v>187</v>
       </c>
       <c r="I6" s="4" t="s">
         <v>4</v>
@@ -1583,13 +1581,13 @@
         <v>9</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>196</v>
+        <v>188</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>201</v>
+        <v>193</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>205</v>
+        <v>197</v>
       </c>
       <c r="E7" s="4" t="s">
         <v>10</v>
@@ -1601,7 +1599,7 @@
         <v>41001</v>
       </c>
       <c r="H7" s="4" t="s">
-        <v>202</v>
+        <v>194</v>
       </c>
       <c r="I7" s="4" t="s">
         <v>4</v>
@@ -1612,13 +1610,13 @@
         <v>11</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>186</v>
+        <v>178</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>203</v>
+        <v>195</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>204</v>
+        <v>196</v>
       </c>
       <c r="E8" s="4" t="s">
         <v>2</v>
@@ -1630,7 +1628,7 @@
         <v>40206</v>
       </c>
       <c r="H8" s="4" t="s">
-        <v>206</v>
+        <v>198</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.2">
@@ -1638,16 +1636,16 @@
         <v>12</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>196</v>
+        <v>188</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>316</v>
+        <v>308</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>207</v>
+        <v>199</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>208</v>
+        <v>200</v>
       </c>
       <c r="F9" s="4" t="s">
         <v>75</v>
@@ -1656,7 +1654,7 @@
         <v>40004</v>
       </c>
       <c r="H9" s="4" t="s">
-        <v>209</v>
+        <v>201</v>
       </c>
       <c r="I9" s="4" t="s">
         <v>117</v>
@@ -1667,13 +1665,13 @@
         <v>13</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>186</v>
+        <v>178</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>210</v>
+        <v>202</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>211</v>
+        <v>203</v>
       </c>
       <c r="E10" s="4" t="s">
         <v>14</v>
@@ -1685,7 +1683,7 @@
         <v>41016</v>
       </c>
       <c r="H10" s="4" t="s">
-        <v>212</v>
+        <v>204</v>
       </c>
       <c r="I10" s="4" t="s">
         <v>4</v>
@@ -1693,16 +1691,16 @@
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A11" s="9" t="s">
-        <v>213</v>
+        <v>205</v>
       </c>
       <c r="B11" s="9" t="s">
-        <v>190</v>
+        <v>182</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>214</v>
+        <v>206</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>216</v>
+        <v>208</v>
       </c>
       <c r="E11" s="4" t="s">
         <v>15</v>
@@ -1714,7 +1712,7 @@
         <v>40508</v>
       </c>
       <c r="H11" s="4" t="s">
-        <v>217</v>
+        <v>209</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.2">
@@ -1722,13 +1720,13 @@
         <v>17</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>190</v>
+        <v>182</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>220</v>
+        <v>212</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>218</v>
+        <v>210</v>
       </c>
       <c r="E12" s="4" t="s">
         <v>16</v>
@@ -1740,7 +1738,7 @@
         <v>42104</v>
       </c>
       <c r="H12" s="4" t="s">
-        <v>219</v>
+        <v>211</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.2">
@@ -1748,13 +1746,13 @@
         <v>18</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>196</v>
+        <v>188</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>221</v>
+        <v>213</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>222</v>
+        <v>214</v>
       </c>
       <c r="E13" s="4" t="s">
         <v>2</v>
@@ -1766,7 +1764,7 @@
         <v>40202</v>
       </c>
       <c r="H13" s="4" t="s">
-        <v>223</v>
+        <v>215</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.2">
@@ -1774,13 +1772,13 @@
         <v>19</v>
       </c>
       <c r="B14" s="9" t="s">
-        <v>196</v>
+        <v>188</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>221</v>
+        <v>213</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>224</v>
+        <v>216</v>
       </c>
       <c r="E14" s="4" t="s">
         <v>2</v>
@@ -1792,7 +1790,7 @@
         <v>40202</v>
       </c>
       <c r="H14" s="4" t="s">
-        <v>225</v>
+        <v>217</v>
       </c>
       <c r="I14" s="4" t="s">
         <v>117</v>
@@ -1803,13 +1801,13 @@
         <v>20</v>
       </c>
       <c r="B15" s="9" t="s">
-        <v>226</v>
+        <v>218</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>215</v>
+        <v>207</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>227</v>
+        <v>219</v>
       </c>
       <c r="E15" s="4" t="s">
         <v>21</v>
@@ -1821,24 +1819,24 @@
         <v>41011</v>
       </c>
       <c r="H15" s="4" t="s">
-        <v>228</v>
+        <v>220</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A16" s="9" t="s">
-        <v>229</v>
+        <v>221</v>
       </c>
       <c r="B16" s="9" t="s">
-        <v>190</v>
+        <v>182</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>215</v>
+        <v>207</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>230</v>
+        <v>222</v>
       </c>
       <c r="E16" s="4" t="s">
-        <v>231</v>
+        <v>223</v>
       </c>
       <c r="F16" s="4" t="s">
         <v>75</v>
@@ -1847,24 +1845,24 @@
         <v>41073</v>
       </c>
       <c r="H16" s="4" t="s">
-        <v>235</v>
+        <v>227</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A17" s="9" t="s">
-        <v>232</v>
+        <v>224</v>
       </c>
       <c r="B17" s="9" t="s">
-        <v>190</v>
+        <v>182</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>215</v>
+        <v>207</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>233</v>
+        <v>225</v>
       </c>
       <c r="E17" s="4" t="s">
-        <v>234</v>
+        <v>226</v>
       </c>
       <c r="F17" s="4" t="s">
         <v>75</v>
@@ -1873,21 +1871,21 @@
         <v>41017</v>
       </c>
       <c r="H17" s="4" t="s">
-        <v>280</v>
+        <v>272</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A18" s="9" t="s">
-        <v>241</v>
+        <v>233</v>
       </c>
       <c r="B18" s="9" t="s">
-        <v>190</v>
+        <v>182</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>242</v>
+        <v>234</v>
       </c>
       <c r="D18" s="5" t="s">
-        <v>243</v>
+        <v>235</v>
       </c>
       <c r="E18" s="4" t="s">
         <v>29</v>
@@ -1899,10 +1897,10 @@
         <v>41501</v>
       </c>
       <c r="H18" s="5" t="s">
-        <v>238</v>
+        <v>230</v>
       </c>
       <c r="I18" s="4" t="s">
-        <v>161</v>
+        <v>153</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.2">
@@ -1910,13 +1908,13 @@
         <v>22</v>
       </c>
       <c r="B19" s="9" t="s">
-        <v>190</v>
+        <v>182</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>245</v>
+        <v>237</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>246</v>
+        <v>238</v>
       </c>
       <c r="E19" s="4" t="s">
         <v>15</v>
@@ -1928,21 +1926,21 @@
         <v>40508</v>
       </c>
       <c r="H19" s="4" t="s">
-        <v>247</v>
+        <v>239</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A20" s="3" t="s">
-        <v>244</v>
+        <v>236</v>
       </c>
       <c r="B20" s="9" t="s">
-        <v>190</v>
+        <v>182</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>245</v>
+        <v>237</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>248</v>
+        <v>240</v>
       </c>
       <c r="E20" s="4" t="s">
         <v>52</v>
@@ -1954,21 +1952,21 @@
         <v>40324</v>
       </c>
       <c r="H20" s="4" t="s">
-        <v>249</v>
+        <v>241</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A21" s="3" t="s">
-        <v>250</v>
+        <v>242</v>
       </c>
       <c r="B21" s="9" t="s">
-        <v>190</v>
+        <v>182</v>
       </c>
       <c r="C21" s="7" t="s">
-        <v>251</v>
+        <v>243</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>252</v>
+        <v>244</v>
       </c>
       <c r="E21" s="4" t="s">
         <v>2</v>
@@ -1980,21 +1978,21 @@
         <v>40205</v>
       </c>
       <c r="H21" s="4" t="s">
-        <v>253</v>
+        <v>245</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A22" s="9" t="s">
-        <v>254</v>
+        <v>246</v>
       </c>
       <c r="B22" s="9" t="s">
-        <v>186</v>
+        <v>178</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>256</v>
+        <v>248</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>255</v>
+        <v>247</v>
       </c>
       <c r="E22" s="4" t="s">
         <v>23</v>
@@ -2006,21 +2004,21 @@
         <v>41073</v>
       </c>
       <c r="H22" s="4" t="s">
-        <v>257</v>
+        <v>249</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A23" s="9" t="s">
-        <v>236</v>
+        <v>228</v>
       </c>
       <c r="B23" s="9" t="s">
-        <v>186</v>
+        <v>178</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>240</v>
+        <v>232</v>
       </c>
       <c r="D23" s="4" t="s">
-        <v>237</v>
+        <v>229</v>
       </c>
       <c r="E23" s="4" t="s">
         <v>2</v>
@@ -2032,10 +2030,10 @@
         <v>40206</v>
       </c>
       <c r="H23" s="4" t="s">
-        <v>238</v>
+        <v>230</v>
       </c>
       <c r="I23" s="4" t="s">
-        <v>239</v>
+        <v>231</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.2">
@@ -2043,13 +2041,13 @@
         <v>24</v>
       </c>
       <c r="B24" s="9" t="s">
-        <v>186</v>
+        <v>178</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>258</v>
+        <v>250</v>
       </c>
       <c r="D24" s="4" t="s">
-        <v>259</v>
+        <v>251</v>
       </c>
       <c r="E24" s="4" t="s">
         <v>25</v>
@@ -2061,7 +2059,7 @@
         <v>40475</v>
       </c>
       <c r="H24" s="4" t="s">
-        <v>260</v>
+        <v>252</v>
       </c>
       <c r="I24" s="4" t="s">
         <v>4</v>
@@ -2072,13 +2070,13 @@
         <v>26</v>
       </c>
       <c r="B25" s="9" t="s">
-        <v>186</v>
+        <v>178</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>261</v>
+        <v>253</v>
       </c>
       <c r="D25" s="5" t="s">
-        <v>262</v>
+        <v>254</v>
       </c>
       <c r="E25" s="4" t="s">
         <v>27</v>
@@ -2090,7 +2088,7 @@
         <v>42001</v>
       </c>
       <c r="H25" s="4" t="s">
-        <v>263</v>
+        <v>255</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.2">
@@ -2098,13 +2096,13 @@
         <v>28</v>
       </c>
       <c r="B26" s="9" t="s">
-        <v>190</v>
+        <v>182</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>264</v>
+        <v>256</v>
       </c>
       <c r="D26" s="4" t="s">
-        <v>265</v>
+        <v>257</v>
       </c>
       <c r="E26" s="4" t="s">
         <v>29</v>
@@ -2116,7 +2114,7 @@
         <v>41501</v>
       </c>
       <c r="H26" s="4" t="s">
-        <v>266</v>
+        <v>258</v>
       </c>
       <c r="I26" s="4" t="s">
         <v>117</v>
@@ -2127,13 +2125,13 @@
         <v>30</v>
       </c>
       <c r="B27" s="9" t="s">
-        <v>190</v>
+        <v>182</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>267</v>
+        <v>259</v>
       </c>
       <c r="D27" s="4" t="s">
-        <v>269</v>
+        <v>261</v>
       </c>
       <c r="E27" s="4" t="s">
         <v>15</v>
@@ -2145,7 +2143,7 @@
         <v>40504</v>
       </c>
       <c r="H27" s="4" t="s">
-        <v>268</v>
+        <v>260</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.2">
@@ -2153,13 +2151,13 @@
         <v>31</v>
       </c>
       <c r="B28" s="9" t="s">
-        <v>190</v>
+        <v>182</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>272</v>
+        <v>264</v>
       </c>
       <c r="D28" s="4" t="s">
-        <v>271</v>
+        <v>263</v>
       </c>
       <c r="E28" s="4" t="s">
         <v>2</v>
@@ -2171,21 +2169,21 @@
         <v>40204</v>
       </c>
       <c r="H28" s="4" t="s">
-        <v>270</v>
+        <v>262</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A29" s="9" t="s">
-        <v>273</v>
+        <v>265</v>
       </c>
       <c r="B29" s="9" t="s">
-        <v>196</v>
+        <v>188</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>274</v>
+        <v>266</v>
       </c>
       <c r="D29" s="4" t="s">
-        <v>276</v>
+        <v>268</v>
       </c>
       <c r="E29" s="4" t="s">
         <v>2</v>
@@ -2197,7 +2195,7 @@
         <v>40204</v>
       </c>
       <c r="H29" s="4" t="s">
-        <v>275</v>
+        <v>267</v>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.2">
@@ -2205,13 +2203,13 @@
         <v>32</v>
       </c>
       <c r="B30" s="6" t="s">
-        <v>186</v>
+        <v>178</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>277</v>
+        <v>269</v>
       </c>
       <c r="D30" s="4" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="E30" s="4" t="s">
         <v>33</v>
@@ -2223,7 +2221,7 @@
         <v>42701</v>
       </c>
       <c r="H30" s="4" t="s">
-        <v>280</v>
+        <v>272</v>
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.2">
@@ -2231,13 +2229,13 @@
         <v>34</v>
       </c>
       <c r="B31" s="6" t="s">
-        <v>186</v>
+        <v>178</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>281</v>
+        <v>273</v>
       </c>
       <c r="D31" s="4" t="s">
-        <v>283</v>
+        <v>275</v>
       </c>
       <c r="E31" s="4" t="s">
         <v>15</v>
@@ -2249,21 +2247,21 @@
         <v>40508</v>
       </c>
       <c r="H31" s="4" t="s">
-        <v>282</v>
+        <v>274</v>
       </c>
     </row>
     <row r="32" spans="1:9" ht="24" x14ac:dyDescent="0.2">
       <c r="A32" s="9" t="s">
-        <v>286</v>
+        <v>278</v>
       </c>
       <c r="B32" s="9" t="s">
-        <v>190</v>
+        <v>182</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>293</v>
+        <v>285</v>
       </c>
       <c r="D32" s="4" t="s">
-        <v>284</v>
+        <v>276</v>
       </c>
       <c r="E32" s="4" t="s">
         <v>2</v>
@@ -2275,47 +2273,47 @@
         <v>40202</v>
       </c>
       <c r="H32" s="4" t="s">
-        <v>285</v>
+        <v>277</v>
       </c>
     </row>
     <row r="33" spans="1:9" ht="24" x14ac:dyDescent="0.2">
       <c r="A33" s="9" t="s">
+        <v>279</v>
+      </c>
+      <c r="B33" s="9" t="s">
+        <v>182</v>
+      </c>
+      <c r="C33" s="4" t="s">
         <v>287</v>
       </c>
-      <c r="B33" s="9" t="s">
-        <v>190</v>
-      </c>
-      <c r="C33" s="4" t="s">
-        <v>295</v>
-      </c>
       <c r="D33" s="4" t="s">
-        <v>289</v>
+        <v>281</v>
       </c>
       <c r="E33" s="4" t="s">
-        <v>290</v>
+        <v>282</v>
       </c>
       <c r="F33" s="4" t="s">
-        <v>291</v>
+        <v>283</v>
       </c>
       <c r="G33" s="4">
         <v>47130</v>
       </c>
       <c r="H33" s="5" t="s">
-        <v>294</v>
+        <v>286</v>
       </c>
       <c r="I33" s="4" t="s">
-        <v>193</v>
+        <v>185</v>
       </c>
     </row>
     <row r="34" spans="1:9" ht="24" x14ac:dyDescent="0.2">
       <c r="A34" s="9" t="s">
-        <v>288</v>
+        <v>280</v>
       </c>
       <c r="B34" s="9" t="s">
-        <v>190</v>
+        <v>182</v>
       </c>
       <c r="C34" s="4" t="s">
-        <v>292</v>
+        <v>284</v>
       </c>
       <c r="D34" s="4" t="s">
         <v>87</v>
@@ -2330,24 +2328,24 @@
         <v>40601</v>
       </c>
       <c r="H34" s="5" t="s">
-        <v>296</v>
+        <v>288</v>
       </c>
       <c r="I34" s="4" t="s">
-        <v>193</v>
+        <v>185</v>
       </c>
     </row>
     <row r="35" spans="1:9" ht="24" x14ac:dyDescent="0.2">
       <c r="A35" s="9" t="s">
-        <v>299</v>
+        <v>291</v>
       </c>
       <c r="B35" s="9" t="s">
-        <v>196</v>
+        <v>188</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>317</v>
+        <v>309</v>
       </c>
       <c r="D35" s="4" t="s">
-        <v>298</v>
+        <v>290</v>
       </c>
       <c r="E35" s="4" t="s">
         <v>2</v>
@@ -2359,7 +2357,7 @@
         <v>40202</v>
       </c>
       <c r="H35" s="4" t="s">
-        <v>297</v>
+        <v>289</v>
       </c>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.2">
@@ -2367,13 +2365,13 @@
         <v>35</v>
       </c>
       <c r="B36" s="9" t="s">
-        <v>190</v>
+        <v>182</v>
       </c>
       <c r="C36" s="4" t="s">
-        <v>278</v>
+        <v>270</v>
       </c>
       <c r="D36" s="5" t="s">
-        <v>301</v>
+        <v>293</v>
       </c>
       <c r="E36" s="4" t="s">
         <v>2</v>
@@ -2385,7 +2383,7 @@
         <v>40204</v>
       </c>
       <c r="H36" s="4" t="s">
-        <v>300</v>
+        <v>292</v>
       </c>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.2">
@@ -2393,13 +2391,13 @@
         <v>36</v>
       </c>
       <c r="B37" s="9" t="s">
-        <v>190</v>
+        <v>182</v>
       </c>
       <c r="C37" s="4" t="s">
-        <v>180</v>
+        <v>172</v>
       </c>
       <c r="D37" s="4" t="s">
-        <v>181</v>
+        <v>173</v>
       </c>
       <c r="E37" s="4" t="s">
         <v>2</v>
@@ -2411,7 +2409,7 @@
         <v>40205</v>
       </c>
       <c r="H37" s="4" t="s">
-        <v>182</v>
+        <v>174</v>
       </c>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.2">
@@ -2419,13 +2417,13 @@
         <v>37</v>
       </c>
       <c r="B38" s="9" t="s">
-        <v>196</v>
+        <v>188</v>
       </c>
       <c r="C38" s="4" t="s">
-        <v>177</v>
+        <v>169</v>
       </c>
       <c r="D38" s="4" t="s">
-        <v>178</v>
+        <v>170</v>
       </c>
       <c r="E38" s="4" t="s">
         <v>38</v>
@@ -2437,7 +2435,7 @@
         <v>40422</v>
       </c>
       <c r="H38" s="4" t="s">
-        <v>179</v>
+        <v>171</v>
       </c>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.2">
@@ -2445,13 +2443,13 @@
         <v>39</v>
       </c>
       <c r="B39" s="9" t="s">
-        <v>196</v>
+        <v>188</v>
       </c>
       <c r="C39" s="4" t="s">
-        <v>174</v>
+        <v>166</v>
       </c>
       <c r="D39" s="4" t="s">
-        <v>175</v>
+        <v>167</v>
       </c>
       <c r="E39" s="4" t="s">
         <v>40</v>
@@ -2463,7 +2461,7 @@
         <v>42420</v>
       </c>
       <c r="H39" s="4" t="s">
-        <v>176</v>
+        <v>168</v>
       </c>
       <c r="I39" s="4" t="s">
         <v>4</v>
@@ -2471,16 +2469,16 @@
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A40" s="6" t="s">
-        <v>171</v>
+        <v>163</v>
       </c>
       <c r="B40" s="9" t="s">
-        <v>196</v>
+        <v>188</v>
       </c>
       <c r="C40" s="4" t="s">
-        <v>170</v>
+        <v>162</v>
       </c>
       <c r="D40" s="4" t="s">
-        <v>172</v>
+        <v>164</v>
       </c>
       <c r="E40" s="4" t="s">
         <v>64</v>
@@ -2492,21 +2490,21 @@
         <v>41071</v>
       </c>
       <c r="H40" s="4" t="s">
-        <v>173</v>
+        <v>165</v>
       </c>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A41" s="6" t="s">
-        <v>166</v>
+        <v>158</v>
       </c>
       <c r="B41" s="6" t="s">
-        <v>186</v>
+        <v>178</v>
       </c>
       <c r="C41" s="4" t="s">
-        <v>167</v>
+        <v>159</v>
       </c>
       <c r="D41" s="4" t="s">
-        <v>168</v>
+        <v>160</v>
       </c>
       <c r="E41" s="4" t="s">
         <v>2</v>
@@ -2518,21 +2516,21 @@
         <v>40222</v>
       </c>
       <c r="H41" s="4" t="s">
-        <v>169</v>
+        <v>161</v>
       </c>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A42" s="6" t="s">
-        <v>302</v>
+        <v>294</v>
       </c>
       <c r="B42" s="6" t="s">
-        <v>196</v>
+        <v>188</v>
       </c>
       <c r="C42" s="4" t="s">
-        <v>305</v>
+        <v>297</v>
       </c>
       <c r="D42" s="4" t="s">
-        <v>304</v>
+        <v>296</v>
       </c>
       <c r="E42" s="4" t="s">
         <v>2</v>
@@ -2544,24 +2542,24 @@
         <v>40204</v>
       </c>
       <c r="H42" s="4" t="s">
-        <v>303</v>
+        <v>295</v>
       </c>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A43" s="6" t="s">
-        <v>160</v>
+        <v>152</v>
       </c>
       <c r="B43" s="6" t="s">
-        <v>186</v>
+        <v>178</v>
       </c>
       <c r="C43" s="4" t="s">
-        <v>162</v>
+        <v>154</v>
       </c>
       <c r="D43" s="4" t="s">
-        <v>163</v>
+        <v>155</v>
       </c>
       <c r="E43" s="4" t="s">
-        <v>164</v>
+        <v>156</v>
       </c>
       <c r="F43" s="4" t="s">
         <v>75</v>
@@ -2570,10 +2568,10 @@
         <v>42240</v>
       </c>
       <c r="H43" s="4" t="s">
-        <v>165</v>
+        <v>157</v>
       </c>
       <c r="I43" s="4" t="s">
-        <v>161</v>
+        <v>153</v>
       </c>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.2">
@@ -2581,13 +2579,13 @@
         <v>47</v>
       </c>
       <c r="B44" s="6" t="s">
-        <v>186</v>
+        <v>178</v>
       </c>
       <c r="C44" s="4" t="s">
-        <v>155</v>
+        <v>147</v>
       </c>
       <c r="D44" s="4" t="s">
-        <v>156</v>
+        <v>148</v>
       </c>
       <c r="E44" s="4" t="s">
         <v>41</v>
@@ -2599,10 +2597,10 @@
         <v>42501</v>
       </c>
       <c r="H44" s="4" t="s">
-        <v>157</v>
+        <v>149</v>
       </c>
       <c r="I44" s="4" t="s">
-        <v>158</v>
+        <v>150</v>
       </c>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.2">
@@ -2610,13 +2608,13 @@
         <v>42</v>
       </c>
       <c r="B45" s="6" t="s">
-        <v>186</v>
+        <v>178</v>
       </c>
       <c r="C45" s="4" t="s">
-        <v>154</v>
+        <v>146</v>
       </c>
       <c r="D45" s="4" t="s">
-        <v>153</v>
+        <v>145</v>
       </c>
       <c r="E45" s="4" t="s">
         <v>43</v>
@@ -2628,10 +2626,10 @@
         <v>40330</v>
       </c>
       <c r="H45" s="4" t="s">
-        <v>152</v>
+        <v>144</v>
       </c>
       <c r="I45" s="4" t="s">
-        <v>159</v>
+        <v>151</v>
       </c>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.2">
@@ -2639,13 +2637,13 @@
         <v>45</v>
       </c>
       <c r="B46" s="6" t="s">
-        <v>226</v>
+        <v>218</v>
       </c>
       <c r="C46" s="4" t="s">
-        <v>149</v>
+        <v>141</v>
       </c>
       <c r="D46" s="4" t="s">
-        <v>150</v>
+        <v>142</v>
       </c>
       <c r="E46" s="4" t="s">
         <v>15</v>
@@ -2657,7 +2655,7 @@
         <v>40508</v>
       </c>
       <c r="H46" s="4" t="s">
-        <v>151</v>
+        <v>143</v>
       </c>
       <c r="I46" s="4" t="s">
         <v>117</v>
@@ -2668,13 +2666,13 @@
         <v>46</v>
       </c>
       <c r="B47" s="6" t="s">
-        <v>186</v>
+        <v>178</v>
       </c>
       <c r="C47" s="4" t="s">
-        <v>145</v>
+        <v>137</v>
       </c>
       <c r="D47" s="4" t="s">
-        <v>146</v>
+        <v>138</v>
       </c>
       <c r="E47" s="4" t="s">
         <v>44</v>
@@ -2686,10 +2684,10 @@
         <v>41031</v>
       </c>
       <c r="H47" s="4" t="s">
-        <v>147</v>
+        <v>139</v>
       </c>
       <c r="I47" s="4" t="s">
-        <v>148</v>
+        <v>140</v>
       </c>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.2">
@@ -2697,7 +2695,7 @@
         <v>129</v>
       </c>
       <c r="B48" s="6" t="s">
-        <v>186</v>
+        <v>178</v>
       </c>
       <c r="C48" s="4" t="s">
         <v>130</v>
@@ -2720,19 +2718,19 @@
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A49" s="6" t="s">
-        <v>306</v>
+        <v>298</v>
       </c>
       <c r="B49" s="6" t="s">
-        <v>186</v>
+        <v>178</v>
       </c>
       <c r="C49" s="4" t="s">
-        <v>310</v>
+        <v>302</v>
       </c>
       <c r="D49" s="4" t="s">
-        <v>307</v>
+        <v>299</v>
       </c>
       <c r="E49" s="4" t="s">
-        <v>308</v>
+        <v>300</v>
       </c>
       <c r="F49" s="4" t="s">
         <v>75</v>
@@ -2741,7 +2739,7 @@
         <v>41056</v>
       </c>
       <c r="H49" s="5" t="s">
-        <v>309</v>
+        <v>301</v>
       </c>
       <c r="I49" s="4" t="s">
         <v>136</v>
@@ -2752,7 +2750,7 @@
         <v>48</v>
       </c>
       <c r="B50" s="6" t="s">
-        <v>186</v>
+        <v>178</v>
       </c>
       <c r="C50" s="4" t="s">
         <v>126</v>
@@ -2781,7 +2779,7 @@
         <v>49</v>
       </c>
       <c r="B51" s="6" t="s">
-        <v>196</v>
+        <v>188</v>
       </c>
       <c r="C51" s="4" t="s">
         <v>123</v>
@@ -2807,7 +2805,7 @@
         <v>50</v>
       </c>
       <c r="B52" s="6" t="s">
-        <v>196</v>
+        <v>188</v>
       </c>
       <c r="C52" s="4" t="s">
         <v>120</v>
@@ -2833,10 +2831,10 @@
         <v>51</v>
       </c>
       <c r="B53" s="6" t="s">
-        <v>186</v>
+        <v>178</v>
       </c>
       <c r="C53" s="4" t="s">
-        <v>311</v>
+        <v>303</v>
       </c>
       <c r="D53" s="4" t="s">
         <v>118</v>
@@ -2862,7 +2860,7 @@
         <v>109</v>
       </c>
       <c r="B54" s="6" t="s">
-        <v>186</v>
+        <v>178</v>
       </c>
       <c r="C54" s="4" t="s">
         <v>108</v>
@@ -2891,10 +2889,10 @@
         <v>115</v>
       </c>
       <c r="B55" s="6" t="s">
-        <v>186</v>
+        <v>178</v>
       </c>
       <c r="C55" s="4" t="s">
-        <v>312</v>
+        <v>304</v>
       </c>
       <c r="D55" s="4" t="s">
         <v>110</v>
@@ -2920,10 +2918,10 @@
         <v>53</v>
       </c>
       <c r="B56" s="6" t="s">
-        <v>196</v>
+        <v>188</v>
       </c>
       <c r="C56" s="4" t="s">
-        <v>313</v>
+        <v>305</v>
       </c>
       <c r="D56" s="4" t="s">
         <v>106</v>
@@ -2946,7 +2944,7 @@
         <v>54</v>
       </c>
       <c r="B57" s="6" t="s">
-        <v>186</v>
+        <v>178</v>
       </c>
       <c r="C57" s="4" t="s">
         <v>103</v>
@@ -2972,10 +2970,10 @@
         <v>55</v>
       </c>
       <c r="B58" s="6" t="s">
-        <v>186</v>
+        <v>178</v>
       </c>
       <c r="C58" s="7" t="s">
-        <v>314</v>
+        <v>306</v>
       </c>
       <c r="D58" s="4" t="s">
         <v>101</v>
@@ -2998,7 +2996,7 @@
         <v>56</v>
       </c>
       <c r="B59" s="6" t="s">
-        <v>190</v>
+        <v>182</v>
       </c>
       <c r="C59" s="4" t="s">
         <v>98</v>
@@ -3027,7 +3025,7 @@
         <v>68</v>
       </c>
       <c r="B60" s="6" t="s">
-        <v>190</v>
+        <v>182</v>
       </c>
       <c r="C60" s="4" t="s">
         <v>69</v>
@@ -3053,7 +3051,7 @@
         <v>58</v>
       </c>
       <c r="B61" s="6" t="s">
-        <v>186</v>
+        <v>178</v>
       </c>
       <c r="C61" s="4" t="s">
         <v>95</v>
@@ -3079,10 +3077,10 @@
         <v>59</v>
       </c>
       <c r="B62" s="6" t="s">
-        <v>196</v>
+        <v>188</v>
       </c>
       <c r="C62" s="4" t="s">
-        <v>315</v>
+        <v>307</v>
       </c>
       <c r="D62" s="4" t="s">
         <v>93</v>
@@ -3105,7 +3103,7 @@
         <v>61</v>
       </c>
       <c r="B63" s="6" t="s">
-        <v>190</v>
+        <v>182</v>
       </c>
       <c r="C63" s="4" t="s">
         <v>86</v>
@@ -3131,7 +3129,7 @@
         <v>83</v>
       </c>
       <c r="B64" s="6" t="s">
-        <v>190</v>
+        <v>182</v>
       </c>
       <c r="C64" s="4" t="s">
         <v>90</v>
@@ -3160,7 +3158,7 @@
         <v>82</v>
       </c>
       <c r="B65" s="6" t="s">
-        <v>190</v>
+        <v>182</v>
       </c>
       <c r="C65" s="4" t="s">
         <v>91</v>
@@ -3189,7 +3187,7 @@
         <v>62</v>
       </c>
       <c r="B66" s="9" t="s">
-        <v>196</v>
+        <v>188</v>
       </c>
       <c r="C66" s="4" t="s">
         <v>70</v>
@@ -3218,10 +3216,10 @@
         <v>63</v>
       </c>
       <c r="B67" s="9" t="s">
-        <v>186</v>
+        <v>178</v>
       </c>
       <c r="C67" s="4" t="s">
-        <v>318</v>
+        <v>310</v>
       </c>
       <c r="D67" s="4" t="s">
         <v>80</v>
@@ -3244,7 +3242,7 @@
         <v>65</v>
       </c>
       <c r="B68" s="6" t="s">
-        <v>196</v>
+        <v>188</v>
       </c>
       <c r="C68" s="4" t="s">
         <v>77</v>
